--- a/PythonResources/Data/Consumption/Sympheny/post_1359_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1359_coo.xlsx
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>41.69609588346558</v>
+        <v>41.69609588346557</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>20.90417104563644</v>
+        <v>20.90417104563643</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>54.66390320215279</v>
+        <v>54.66390320215278</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>16.96160359094083</v>
+        <v>16.96160359094082</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>17.22542613994377</v>
+        <v>17.22542613994376</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>15.64811780986841</v>
+        <v>15.6481178098684</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>12.39986495286539</v>
+        <v>12.39986495286538</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>4.222274453994002</v>
+        <v>4.222274453994001</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>15.33385773511185</v>
+        <v>15.33385773511184</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>6.632051069386914</v>
+        <v>6.632051069386913</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.7738658004268287</v>
+        <v>0.7738658004268286</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>25.63527543695427</v>
+        <v>25.63527543695426</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>49.04367989374417</v>
+        <v>49.04367989374416</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>33.96429574150197</v>
+        <v>33.96429574150196</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>37.58430921104691</v>
+        <v>37.5843092110469</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>15.68557228860933</v>
+        <v>15.68557228860932</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>8.879056029907314</v>
+        <v>8.879056029907312</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>9.073860349305511</v>
+        <v>9.073860349305509</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>7.361563498822735</v>
+        <v>7.361563498822734</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>0.3667315135184878</v>
+        <v>0.3667315135184877</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>5.736103597095315</v>
+        <v>5.736103597095314</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>0.6708337460750462</v>
+        <v>0.6708337460750461</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>5.135161432320227</v>
+        <v>5.135161432320226</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>7.752403035981504</v>
+        <v>7.752403035981503</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>16.02676559181887</v>
+        <v>16.02676559181886</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>0.3213729088648714</v>
+        <v>0.3213729088648713</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>9.262949783449811</v>
+        <v>9.262949783449807</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>5.179884072819948</v>
+        <v>5.179884072819947</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>5.328617624940581</v>
+        <v>5.32861762494058</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>7.881354292992496</v>
+        <v>7.881354292992495</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>7.564720342822779</v>
+        <v>7.564720342822778</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>12.06678971742677</v>
+        <v>12.06678971742676</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>6.760621334047646</v>
+        <v>6.760621334047645</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>6.503304962102985</v>
+        <v>6.503304962102984</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>5.154943727429868</v>
+        <v>5.154943727429867</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>1.695014451332917</v>
+        <v>1.695014451332916</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>2.38953712946296</v>
+        <v>2.389537129462959</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>9.135610417151456</v>
+        <v>9.135610417151454</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>7.740299202084791</v>
+        <v>7.74029920208479</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>7.782853116898418</v>
+        <v>7.782853116898417</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>8.65922344380744</v>
+        <v>8.659223443807438</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>7.456137522998751</v>
+        <v>7.45613752299875</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>15.70916450722157</v>
+        <v>15.70916450722156</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>6.335902784819624</v>
+        <v>6.335902784819623</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>18.02515839024285</v>
+        <v>18.02515839024284</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>6.935819200959398</v>
+        <v>6.935819200959397</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>7.725381886216928</v>
+        <v>7.725381886216927</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>6.392260345554201</v>
+        <v>6.3922603455542</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>26.97935783446293</v>
+        <v>26.97935783446292</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>8.128618328311074</v>
+        <v>8.128618328311072</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>4.219988499892444</v>
+        <v>4.219988499892443</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>6.033687929752045</v>
+        <v>6.033687929752044</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>5.462990696166807</v>
+        <v>5.462990696166806</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>0.2823241236736338</v>
+        <v>0.2823241236736337</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>31.20327348627344</v>
+        <v>31.20327348627343</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>1220</v>
       </c>
       <c r="B1220">
-        <v>17.9911035355504</v>
+        <v>17.99110353555039</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>6.952377714643764</v>
+        <v>6.952377714643763</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>32.7896670185473</v>
+        <v>32.78966701854729</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>28.89712679015118</v>
+        <v>28.89712679015117</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>7.802547490696461</v>
+        <v>7.80254749069646</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>6.095731068636652</v>
+        <v>6.095731068636651</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>19.00609646374624</v>
+        <v>19.00609646374623</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>17.03794859651211</v>
+        <v>17.0379485965121</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>22.67648884483706</v>
+        <v>22.67648884483705</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>32.13758395752581</v>
+        <v>32.1375839575258</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>26.33712196034046</v>
+        <v>26.33712196034045</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>14.53488746951329</v>
+        <v>14.53488746951328</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>7.644377051130933</v>
+        <v>7.644377051130932</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>7.776581396671065</v>
+        <v>7.776581396671064</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10887,7 +10887,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>8.838143312910191</v>
+        <v>8.838143312910189</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>6.959792411921896</v>
+        <v>6.959792411921895</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>5.466243784695948</v>
+        <v>5.466243784695947</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>0.5693754832008751</v>
+        <v>0.5693754832008749</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>32.98836918275969</v>
+        <v>32.98836918275968</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>7.368714432166071</v>
+        <v>7.36871443216607</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>4.225791306457938</v>
+        <v>4.225791306457937</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>35.44694212608972</v>
+        <v>35.44694212608971</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>20.72243769456254</v>
+        <v>20.72243769456253</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>17.61157654048396</v>
+        <v>17.61157654048395</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>49.50731827690642</v>
+        <v>49.50731827690641</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>5.876572545925698</v>
+        <v>5.876572545925697</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>6.47437885058711</v>
+        <v>6.474378850587109</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>8.847843964289881</v>
+        <v>8.847843964289879</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>4.221043555631624</v>
+        <v>4.221043555631623</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>0.2823613436955438</v>
+        <v>0.2823613436955437</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>0.5259394245608771</v>
+        <v>0.5259394245608769</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>12.47538935952842</v>
+        <v>12.47538935952841</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>16.3426961714958</v>
+        <v>16.34269617149579</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>13.73099361046522</v>
+        <v>13.73099361046521</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>9.520236848290606</v>
+        <v>9.520236848290605</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>46.19561554003322</v>
+        <v>46.19561554003321</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>50.25113257302891</v>
+        <v>50.2511325730289</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>52.21295010582796</v>
+        <v>52.21295010582795</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>6.950941666554323</v>
+        <v>6.950941666554322</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>7.279151922751164</v>
+        <v>7.279151922751163</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>7.324167634289546</v>
+        <v>7.324167634289545</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>5.722768864836224</v>
+        <v>5.722768864836223</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>0.2240290703024669</v>
+        <v>0.2240290703024668</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>0.6299503361817885</v>
+        <v>0.6299503361817884</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>0.7293952010203563</v>
+        <v>0.7293952010203562</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>0.5152481930705112</v>
+        <v>0.5152481930705111</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>8.886001813523588</v>
+        <v>8.886001813523587</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>6.233708913638413</v>
+        <v>6.233708913638412</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>13.49384052598046</v>
+        <v>13.49384052598045</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>0.1451607230883123</v>
+        <v>0.1451607230883122</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>7.273642187224331</v>
+        <v>7.27364218722433</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>0.6355860922552462</v>
+        <v>0.6355860922552461</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>19.39186587193617</v>
+        <v>19.39186587193616</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>0.4697928749741365</v>
+        <v>0.4697928749741364</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>1.612957491218127</v>
+        <v>1.612957491218126</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>31.39816572698323</v>
+        <v>31.39816572698322</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>0.2323001211555674</v>
+        <v>0.2323001211555673</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>28.75100157027463</v>
+        <v>28.75100157027462</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>6.222191221819022</v>
+        <v>6.222191221819021</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>22.34602194164253</v>
+        <v>22.34602194164252</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>7.307521199293582</v>
+        <v>7.307521199293581</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>17.46729766815098</v>
+        <v>17.46729766815097</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>38.0529298018664</v>
+        <v>38.05292980186639</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>2.124448513573</v>
+        <v>2.124448513572999</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>8.305721156974124</v>
+        <v>8.305721156974123</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>3.024258662154155</v>
+        <v>3.024258662154154</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>20.74239583229538</v>
+        <v>20.74239583229537</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>43.09756159034414</v>
+        <v>43.09756159034413</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>31.88349136700642</v>
+        <v>31.88349136700641</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>28.47976432399356</v>
+        <v>28.47976432399355</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18183,7 +18183,7 @@
         <v>2230</v>
       </c>
       <c r="B2230">
-        <v>26.7204588789095</v>
+        <v>26.72045887890949</v>
       </c>
     </row>
     <row r="2231" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>13.63653681470467</v>
+        <v>13.63653681470466</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>9.707333399372009</v>
+        <v>9.707333399372008</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>48.45255560876424</v>
+        <v>48.45255560876423</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>71.80855896384149</v>
+        <v>71.80855896384148</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>70.68990680927114</v>
+        <v>70.68990680927112</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18391,7 +18391,7 @@
         <v>2256</v>
       </c>
       <c r="B2256">
-        <v>25.55262940405177</v>
+        <v>25.55262940405176</v>
       </c>
     </row>
     <row r="2257" spans="1:2">
@@ -18471,7 +18471,7 @@
         <v>2266</v>
       </c>
       <c r="B2266">
-        <v>35.16647314209081</v>
+        <v>35.1664731420908</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>51.3240656455681</v>
+        <v>51.32406564556809</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>14.41214931852192</v>
+        <v>14.41214931852191</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>59.41780852027847</v>
+        <v>59.41780852027846</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18759,7 +18759,7 @@
         <v>2302</v>
       </c>
       <c r="B2302">
-        <v>54.67122997811932</v>
+        <v>54.67122997811931</v>
       </c>
     </row>
     <row r="2303" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>46.042632457852</v>
+        <v>46.04263245785199</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>33.4341302325636</v>
+        <v>33.43413023256359</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>38.47846895000267</v>
+        <v>38.47846895000266</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18879,7 +18879,7 @@
         <v>2317</v>
       </c>
       <c r="B2317">
-        <v>48.89069681156295</v>
+        <v>48.89069681156294</v>
       </c>
     </row>
     <row r="2318" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>48.87575018859122</v>
+        <v>48.87575018859121</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>6.774131908929934</v>
+        <v>6.774131908929933</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>7.405143162271677</v>
+        <v>7.405143162271676</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>27.45603787884561</v>
+        <v>27.4560378788456</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>45.93302388939265</v>
+        <v>45.93302388939264</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>47.17388666708479</v>
+        <v>47.17388666708478</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -19887,7 +19887,7 @@
         <v>2443</v>
       </c>
       <c r="B2443">
-        <v>46.56488504874651</v>
+        <v>46.5648850487465</v>
       </c>
     </row>
     <row r="2444" spans="1:2">
@@ -19959,7 +19959,7 @@
         <v>2452</v>
       </c>
       <c r="B2452">
-        <v>22.88793959923122</v>
+        <v>22.88793959923121</v>
       </c>
     </row>
     <row r="2453" spans="1:2">
@@ -19999,7 +19999,7 @@
         <v>2457</v>
       </c>
       <c r="B2457">
-        <v>48.44229812241109</v>
+        <v>48.44229812241108</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20071,7 +20071,7 @@
         <v>2466</v>
       </c>
       <c r="B2466">
-        <v>36.8762495816411</v>
+        <v>36.87624958164109</v>
       </c>
     </row>
     <row r="2467" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>19.56161261752882</v>
+        <v>19.56161261752881</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>4.905452352217464</v>
+        <v>4.905452352217463</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>27.64234313812263</v>
+        <v>27.64234313812262</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>12.44898365894503</v>
+        <v>12.44898365894502</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>16.38970476609708</v>
+        <v>16.38970476609707</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>18.48665735482287</v>
+        <v>18.48665735482286</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>11.18520272602958</v>
+        <v>11.18520272602957</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>5.77845236218188</v>
+        <v>5.778452362181879</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21231,7 +21231,7 @@
         <v>2611</v>
       </c>
       <c r="B2611">
-        <v>31.84246142159383</v>
+        <v>31.84246142159382</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21263,7 +21263,7 @@
         <v>2615</v>
       </c>
       <c r="B2615">
-        <v>16.52085405589803</v>
+        <v>16.52085405589802</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -21423,7 +21423,7 @@
         <v>2635</v>
       </c>
       <c r="B2635">
-        <v>37.52569500331464</v>
+        <v>37.52569500331463</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>4.22479486492649</v>
+        <v>4.224794864926489</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>13.08389275710097</v>
+        <v>13.08389275710096</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>0.7645432106870114</v>
+        <v>0.7645432106870113</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>0.2849093033056655</v>
+        <v>0.2849093033056654</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>5.726021953365365</v>
+        <v>5.726021953365364</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21775,7 +21775,7 @@
         <v>2679</v>
       </c>
       <c r="B2679">
-        <v>12.74354935990355</v>
+        <v>12.74354935990354</v>
       </c>
     </row>
     <row r="2680" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>6.28748744923277</v>
+        <v>6.287487449232769</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>40.03526230737174</v>
+        <v>40.03526230737173</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>13.65617257429498</v>
+        <v>13.65617257429497</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>47.55341366215123</v>
+        <v>47.55341366215122</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>53.18623902522229</v>
+        <v>53.18623902522228</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22583,7 +22583,7 @@
         <v>2780</v>
       </c>
       <c r="B2780">
-        <v>33.57451126008238</v>
+        <v>33.57451126008237</v>
       </c>
     </row>
     <row r="2781" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>17.37175650954738</v>
+        <v>17.37175650954737</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>14.99662089092424</v>
+        <v>14.99662089092423</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>34.14746514066531</v>
+        <v>34.1474651406653</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>18.02668235964389</v>
+        <v>18.02668235964388</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>7.145628757537056</v>
+        <v>7.145628757537055</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>6.33229801104409</v>
+        <v>6.332298011044089</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>0.4734767779301096</v>
+        <v>0.4734767779301095</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>7.039361198918451</v>
+        <v>7.03936119891845</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>24.65029298311736</v>
+        <v>24.65029298311735</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>4.224179415745301</v>
+        <v>4.2241794157453</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>48.31510529163207</v>
+        <v>48.31510529163206</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23287,7 +23287,7 @@
         <v>2868</v>
       </c>
       <c r="B2868">
-        <v>58.2431797973238</v>
+        <v>58.24317979732379</v>
       </c>
     </row>
     <row r="2869" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>56.95396029825254</v>
+        <v>56.95396029825253</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>48.85787285523288</v>
+        <v>48.85787285523287</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>23.79692873274325</v>
+        <v>23.79692873274324</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>9.526743025348887</v>
+        <v>9.526743025348884</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>26.56776886776694</v>
+        <v>26.56776886776693</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>32.1323086788299</v>
+        <v>32.13230867882989</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>46.21583744170085</v>
+        <v>46.21583744170084</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>91.89916480615403</v>
+        <v>91.89916480615402</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>88.08074224343537</v>
+        <v>88.08074224343535</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>48.32008749928931</v>
+        <v>48.3200874992893</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>60.10330167970736</v>
+        <v>60.10330167970735</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -24079,7 +24079,7 @@
         <v>2967</v>
       </c>
       <c r="B2967">
-        <v>51.37740457460446</v>
+        <v>51.37740457460445</v>
       </c>
     </row>
     <row r="2968" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>20.40090945804718</v>
+        <v>20.40090945804717</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24271,7 +24271,7 @@
         <v>2991</v>
       </c>
       <c r="B2991">
-        <v>48.87076798093398</v>
+        <v>48.87076798093397</v>
       </c>
     </row>
     <row r="2992" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>51.81290813805522</v>
+        <v>51.81290813805521</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>21.89097053991306</v>
+        <v>21.89097053991305</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>79.12009523636473</v>
+        <v>79.12009523636472</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>85.14065358358475</v>
+        <v>85.14065358358474</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>79.06910087563766</v>
+        <v>79.06910087563764</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>51.71883233464493</v>
+        <v>51.71883233464492</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>44.3791612424102</v>
+        <v>44.37916124241019</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>35.15914636612428</v>
+        <v>35.15914636612427</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>84.89095705864528</v>
+        <v>84.89095705864527</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>76.75296045709705</v>
+        <v>76.75296045709703</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>86.71972033989208</v>
+        <v>86.71972033989206</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>55.43585231798677</v>
+        <v>55.43585231798676</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>48.69726992604646</v>
+        <v>48.69726992604645</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>32.30815130202671</v>
+        <v>32.3081513020267</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>42.21864154539876</v>
+        <v>42.21864154539875</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>45.67072530979075</v>
+        <v>45.67072530979074</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>76.38662165877037</v>
+        <v>76.38662165877035</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>76.91913173601803</v>
+        <v>76.91913173601802</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>65.27864315142806</v>
+        <v>65.27864315142804</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>61.86114176959811</v>
+        <v>61.8611417695981</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>51.73377895761666</v>
+        <v>51.73377895761665</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>35.96157486997904</v>
+        <v>35.96157486997903</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>27.66326841028305</v>
+        <v>27.66326841028304</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>74.75333676031069</v>
+        <v>74.75333676031067</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25703,7 +25703,7 @@
         <v>3170</v>
       </c>
       <c r="B3170">
-        <v>88.95966228838074</v>
+        <v>88.95966228838073</v>
       </c>
     </row>
     <row r="3171" spans="1:2">
@@ -25823,7 +25823,7 @@
         <v>3185</v>
       </c>
       <c r="B3185">
-        <v>94.14379589126128</v>
+        <v>94.14379589126126</v>
       </c>
     </row>
     <row r="3186" spans="1:2">
@@ -25879,7 +25879,7 @@
         <v>3192</v>
       </c>
       <c r="B3192">
-        <v>27.94238926750411</v>
+        <v>27.9423892675041</v>
       </c>
     </row>
     <row r="3193" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>29.63505035839658</v>
+        <v>29.63505035839657</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>53.91715819564368</v>
+        <v>53.91715819564367</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>79.27571595789391</v>
+        <v>79.27571595789389</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>28.42156041571541</v>
+        <v>28.4215604157154</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26447,7 +26447,7 @@
         <v>3263</v>
       </c>
       <c r="B3263">
-        <v>53.1633794842067</v>
+        <v>53.16337948420669</v>
       </c>
     </row>
     <row r="3264" spans="1:2">
@@ -26463,7 +26463,7 @@
         <v>3265</v>
       </c>
       <c r="B3265">
-        <v>52.49576365813616</v>
+        <v>52.49576365813615</v>
       </c>
     </row>
     <row r="3266" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>51.47411801736271</v>
+        <v>51.4741180173627</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>79.70359967433947</v>
+        <v>79.70359967433946</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>73.23522878004492</v>
+        <v>73.23522878004491</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>27.72208776774238</v>
+        <v>27.72208776774237</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>34.83032066074625</v>
+        <v>34.83032066074624</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>27.83612170888551</v>
+        <v>27.8361217088855</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>22.41606591988259</v>
+        <v>22.41606591988258</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>20.87770673084532</v>
+        <v>20.87770673084531</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>9.187278841267451</v>
+        <v>9.18727884126745</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>5.534558643807908</v>
+        <v>5.534558643807907</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>29.33816939623264</v>
+        <v>29.33816939623263</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>31.31639890719672</v>
+        <v>31.31639890719671</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>36.62391541735368</v>
+        <v>36.62391541735367</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>44.30003206197164</v>
+        <v>44.30003206197163</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>42.56505151309647</v>
+        <v>42.56505151309646</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>46.9546695301661</v>
+        <v>46.95466953016609</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27559,7 +27559,7 @@
         <v>3402</v>
       </c>
       <c r="B3402">
-        <v>54.49333585765189</v>
+        <v>54.49333585765188</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>108.9913608519224</v>
+        <v>108.9913608519223</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27767,7 +27767,7 @@
         <v>3428</v>
       </c>
       <c r="B3428">
-        <v>47.8160053127918</v>
+        <v>47.81600531279179</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
@@ -27799,7 +27799,7 @@
         <v>3432</v>
       </c>
       <c r="B3432">
-        <v>28.05173407202866</v>
+        <v>28.05173407202865</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -27815,7 +27815,7 @@
         <v>3434</v>
       </c>
       <c r="B3434">
-        <v>21.50540628145019</v>
+        <v>21.50540628145018</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>86.05737979251744</v>
+        <v>86.05737979251742</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>65.4011468455885</v>
+        <v>65.40114684558849</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>61.68998828301988</v>
+        <v>61.68998828301987</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>97.54693679219682</v>
+        <v>97.5469367921968</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>63.71833294159505</v>
+        <v>63.71833294159504</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>52.91338988822857</v>
+        <v>52.91338988822856</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28207,7 +28207,7 @@
         <v>3483</v>
       </c>
       <c r="B3483">
-        <v>49.07415928176495</v>
+        <v>49.07415928176494</v>
       </c>
     </row>
     <row r="3484" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>85.64473577008226</v>
+        <v>85.64473577008225</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28375,7 +28375,7 @@
         <v>3504</v>
       </c>
       <c r="B3504">
-        <v>65.75283209198211</v>
+        <v>65.7528320919821</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -28415,7 +28415,7 @@
         <v>3509</v>
       </c>
       <c r="B3509">
-        <v>44.88324342890771</v>
+        <v>44.8832434289077</v>
       </c>
     </row>
     <row r="3510" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>66.16752761168792</v>
+        <v>66.1675276116879</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28791,7 +28791,7 @@
         <v>3556</v>
       </c>
       <c r="B3556">
-        <v>69.17648796562395</v>
+        <v>69.17648796562393</v>
       </c>
     </row>
     <row r="3557" spans="1:2">
@@ -29135,7 +29135,7 @@
         <v>3599</v>
       </c>
       <c r="B3599">
-        <v>89.98892777615939</v>
+        <v>89.98892777615937</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>190.9601065840754</v>
+        <v>190.9601065840753</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29367,7 +29367,7 @@
         <v>3628</v>
       </c>
       <c r="B3628">
-        <v>67.89283681628726</v>
+        <v>67.89283681628724</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>75.25009217084167</v>
+        <v>75.25009217084165</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>235.7882526577148</v>
+        <v>235.7882526577147</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>78.36895416427571</v>
+        <v>78.36895416427569</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29543,7 +29543,7 @@
         <v>3650</v>
       </c>
       <c r="B3650">
-        <v>55.58590468978138</v>
+        <v>55.58590468978137</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>61.85850413025016</v>
+        <v>61.85850413025015</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29679,7 +29679,7 @@
         <v>3667</v>
       </c>
       <c r="B3667">
-        <v>54.08274333248734</v>
+        <v>54.08274333248733</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>36.33348201804029</v>
+        <v>36.33348201804028</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29855,7 +29855,7 @@
         <v>3689</v>
       </c>
       <c r="B3689">
-        <v>63.55245473371273</v>
+        <v>63.55245473371272</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>53.91510669837305</v>
+        <v>53.91510669837304</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>64.44016690981795</v>
+        <v>64.44016690981793</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>73.67571455115292</v>
+        <v>73.67571455115291</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>141.489129115963</v>
+        <v>141.4891291159629</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>96.63226208053476</v>
+        <v>96.63226208053474</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>49.14566861519832</v>
+        <v>49.14566861519831</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>56.39859067998929</v>
+        <v>56.39859067998928</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>66.66692066156685</v>
+        <v>66.66692066156683</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>46.55990284108927</v>
+        <v>46.55990284108926</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>53.46113965948663</v>
+        <v>53.46113965948662</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>75.74743372344997</v>
+        <v>75.74743372344996</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31383,7 +31383,7 @@
         <v>3880</v>
       </c>
       <c r="B3880">
-        <v>98.65034925275678</v>
+        <v>98.65034925275675</v>
       </c>
     </row>
     <row r="3881" spans="1:2">
@@ -31439,7 +31439,7 @@
         <v>3887</v>
       </c>
       <c r="B3887">
-        <v>74.02476215819858</v>
+        <v>74.02476215819857</v>
       </c>
     </row>
     <row r="3888" spans="1:2">
@@ -31447,7 +31447,7 @@
         <v>3888</v>
       </c>
       <c r="B3888">
-        <v>76.67207285042652</v>
+        <v>76.6720728504265</v>
       </c>
     </row>
     <row r="3889" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>169.2004611765865</v>
+        <v>169.2004611765864</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31591,7 +31591,7 @@
         <v>3906</v>
       </c>
       <c r="B3906">
-        <v>130.4963275268146</v>
+        <v>130.4963275268145</v>
       </c>
     </row>
     <row r="3907" spans="1:2">
@@ -31623,7 +31623,7 @@
         <v>3910</v>
       </c>
       <c r="B3910">
-        <v>91.99587824891228</v>
+        <v>91.99587824891226</v>
       </c>
     </row>
     <row r="3911" spans="1:2">
@@ -31647,7 +31647,7 @@
         <v>3913</v>
       </c>
       <c r="B3913">
-        <v>85.52223207592182</v>
+        <v>85.52223207592181</v>
       </c>
     </row>
     <row r="3914" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>210.6779260652107</v>
+        <v>210.6779260652106</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>125.7523866240034</v>
+        <v>125.7523866240033</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>320.8981337822401</v>
+        <v>320.89813378224</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>78.11925763933624</v>
+        <v>78.11925763933623</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>204.0735702089773</v>
+        <v>204.0735702089772</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>243.6976538491072</v>
+        <v>243.6976538491071</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>86.88325397946511</v>
+        <v>86.8832539794651</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>237.4924607475305</v>
+        <v>237.4924607475304</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33191,7 +33191,7 @@
         <v>4106</v>
       </c>
       <c r="B4106">
-        <v>91.54747955976042</v>
+        <v>91.5474795597604</v>
       </c>
     </row>
     <row r="4107" spans="1:2">
@@ -33207,7 +33207,7 @@
         <v>4108</v>
       </c>
       <c r="B4108">
-        <v>92.23297271918931</v>
+        <v>92.23297271918928</v>
       </c>
     </row>
     <row r="4109" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>117.2964079455076</v>
+        <v>117.2964079455075</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>260.2913360581125</v>
+        <v>260.2913360581124</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>124.2920136383539</v>
+        <v>124.2920136383538</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33567,7 +33567,7 @@
         <v>4153</v>
       </c>
       <c r="B4153">
-        <v>85.2221273323326</v>
+        <v>85.22212733233259</v>
       </c>
     </row>
     <row r="4154" spans="1:2">
@@ -33591,7 +33591,7 @@
         <v>4156</v>
       </c>
       <c r="B4156">
-        <v>78.87831162946912</v>
+        <v>78.87831162946911</v>
       </c>
     </row>
     <row r="4157" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>147.5196518784975</v>
+        <v>147.5196518784974</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33791,7 +33791,7 @@
         <v>4181</v>
       </c>
       <c r="B4181">
-        <v>95.77913228699158</v>
+        <v>95.77913228699155</v>
       </c>
     </row>
     <row r="4182" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>56.99264567535584</v>
+        <v>56.99264567535583</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>51.7645514166761</v>
+        <v>51.76455141667609</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34335,7 +34335,7 @@
         <v>4249</v>
       </c>
       <c r="B4249">
-        <v>98.07270623555527</v>
+        <v>98.07270623555526</v>
       </c>
     </row>
     <row r="4250" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>182.830022900571</v>
+        <v>182.8300229005709</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>98.8338117229588</v>
+        <v>98.83381172295876</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34551,7 +34551,7 @@
         <v>4276</v>
       </c>
       <c r="B4276">
-        <v>78.52926402242346</v>
+        <v>78.52926402242345</v>
       </c>
     </row>
     <row r="4277" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>228.212366308319</v>
+        <v>228.2123663083189</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34895,7 +34895,7 @@
         <v>4319</v>
       </c>
       <c r="B4319">
-        <v>78.98293799027122</v>
+        <v>78.98293799027121</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>78.13185969399868</v>
+        <v>78.13185969399866</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>79.59692181626674</v>
+        <v>79.59692181626673</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>150.3498388988501</v>
+        <v>150.34983889885</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>146.4294276146773</v>
+        <v>146.4294276146772</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>100.2578438998143</v>
+        <v>100.2578438998142</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>94.06232214251342</v>
+        <v>94.06232214251339</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>78.80943993538371</v>
+        <v>78.80943993538369</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35167,7 +35167,7 @@
         <v>4353</v>
       </c>
       <c r="B4353">
-        <v>74.90895748183986</v>
+        <v>74.90895748183985</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>99.3636841608585</v>
+        <v>99.36368416085848</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>245.6794002125352</v>
+        <v>245.6794002125351</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>153.4408591436113</v>
+        <v>153.4408591436112</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>266.8822106465675</v>
+        <v>266.8822106465674</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>247.6063422917335</v>
+        <v>247.6063422917334</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36095,7 +36095,7 @@
         <v>4469</v>
       </c>
       <c r="B4469">
-        <v>85.18373502626797</v>
+        <v>85.18373502626795</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>142.956828877579</v>
+        <v>142.9568288775789</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>154.6456741835481</v>
+        <v>154.645674183548</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>106.2710754710678</v>
+        <v>106.2710754710677</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36791,7 +36791,7 @@
         <v>4556</v>
       </c>
       <c r="B4556">
-        <v>98.44432031257786</v>
+        <v>98.44432031257784</v>
       </c>
     </row>
     <row r="4557" spans="1:2">
@@ -36815,7 +36815,7 @@
         <v>4559</v>
       </c>
       <c r="B4559">
-        <v>94.5159961103612</v>
+        <v>94.51599611036116</v>
       </c>
     </row>
     <row r="4560" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>90.97657717644812</v>
+        <v>90.9765771764481</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>86.76543942192325</v>
+        <v>86.76543942192323</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>72.88354353365131</v>
+        <v>72.88354353365129</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37151,7 +37151,7 @@
         <v>4601</v>
       </c>
       <c r="B4601">
-        <v>232.7918943584412</v>
+        <v>232.7918943584411</v>
       </c>
     </row>
     <row r="4602" spans="1:2">
@@ -37231,7 +37231,7 @@
         <v>4611</v>
       </c>
       <c r="B4611">
-        <v>82.81454874972965</v>
+        <v>82.81454874972964</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37375,7 +37375,7 @@
         <v>4629</v>
       </c>
       <c r="B4629">
-        <v>96.53613477985384</v>
+        <v>96.53613477985382</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>194.3611959877403</v>
+        <v>194.3611959877402</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>100.8234710044307</v>
+        <v>100.8234710044306</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>108.3574481952979</v>
+        <v>108.3574481952978</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>123.8720428399522</v>
+        <v>123.8720428399521</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>110.8359499692569</v>
+        <v>110.8359499692568</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>71.79273312775378</v>
+        <v>71.79273312775376</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>82.71519766762346</v>
+        <v>82.71519766762344</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>88.74777192742859</v>
+        <v>88.74777192742857</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37951,7 +37951,7 @@
         <v>4701</v>
       </c>
       <c r="B4701">
-        <v>78.09815652455262</v>
+        <v>78.09815652455261</v>
       </c>
     </row>
     <row r="4702" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>66.62911449757954</v>
+        <v>66.62911449757952</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38183,7 +38183,7 @@
         <v>4730</v>
       </c>
       <c r="B4730">
-        <v>82.72252444358999</v>
+        <v>82.72252444358998</v>
       </c>
     </row>
     <row r="4731" spans="1:2">
@@ -38191,7 +38191,7 @@
         <v>4731</v>
       </c>
       <c r="B4731">
-        <v>82.80927347103375</v>
+        <v>82.80927347103373</v>
       </c>
     </row>
     <row r="4732" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>79.5737692042125</v>
+        <v>79.57376920421248</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>222.9514480933092</v>
+        <v>222.9514480933091</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>263.900505899227</v>
+        <v>263.9005058992269</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>238.0065073493425</v>
+        <v>238.0065073493424</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>262.8398818103116</v>
+        <v>262.8398818103115</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>277.0350706389125</v>
+        <v>277.0350706389124</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38687,7 +38687,7 @@
         <v>4793</v>
       </c>
       <c r="B4793">
-        <v>287.767332074691</v>
+        <v>287.7673320746909</v>
       </c>
     </row>
     <row r="4794" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>307.0710421781978</v>
+        <v>307.0710421781977</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>166.1715719920215</v>
+        <v>166.1715719920214</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39295,7 +39295,7 @@
         <v>4869</v>
       </c>
       <c r="B4869">
-        <v>146.9267691672856</v>
+        <v>146.9267691672855</v>
       </c>
     </row>
     <row r="4870" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>255.2991639855552</v>
+        <v>255.2991639855551</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39511,7 +39511,7 @@
         <v>4896</v>
       </c>
       <c r="B4896">
-        <v>140.6134328524429</v>
+        <v>140.6134328524428</v>
       </c>
     </row>
     <row r="4897" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>129.9770056463067</v>
+        <v>129.9770056463066</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>137.1428856126152</v>
+        <v>137.1428856126151</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>184.9316353188115</v>
+        <v>184.9316353188114</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40247,7 +40247,7 @@
         <v>4988</v>
       </c>
       <c r="B4988">
-        <v>90.194370574261</v>
+        <v>90.19437057426096</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>85.22476497168056</v>
+        <v>85.22476497168054</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>71.85164040652471</v>
+        <v>71.85164040652469</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>81.02359163247017</v>
+        <v>81.02359163247016</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>95.03326649359846</v>
+        <v>95.03326649359845</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>98.41911620325298</v>
+        <v>98.41911620325295</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>89.77967505455518</v>
+        <v>89.77967505455517</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>85.79771885226349</v>
+        <v>85.79771885226347</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>88.23050154419131</v>
+        <v>88.2305015441913</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>83.67500531923936</v>
+        <v>83.67500531923935</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>84.55656300353269</v>
+        <v>84.55656300353267</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>74.29497365584434</v>
+        <v>74.29497365584433</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>76.90916732070355</v>
+        <v>76.90916732070353</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>86.12830298387348</v>
+        <v>86.12830298387347</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>105.0041293709348</v>
+        <v>105.0041293709347</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>123.3990261835528</v>
+        <v>123.3990261835527</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>135.5016877961117</v>
+        <v>135.5016877961116</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>228.6443530193058</v>
+        <v>228.6443530193057</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>259.8655038389376</v>
+        <v>259.8655038389375</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41431,7 +41431,7 @@
         <v>5136</v>
       </c>
       <c r="B5136">
-        <v>118.045497520326</v>
+        <v>118.0454975203259</v>
       </c>
     </row>
     <row r="5137" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>133.3265145471672</v>
+        <v>133.3265145471671</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>177.1371179745744</v>
+        <v>177.1371179745743</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>115.9969309600832</v>
+        <v>115.9969309600831</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>126.8100800025322</v>
+        <v>126.8100800025321</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>54.56191448069864</v>
+        <v>54.56191448069863</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>69.32683340845722</v>
+        <v>69.3268334084572</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42191,7 +42191,7 @@
         <v>5231</v>
       </c>
       <c r="B5231">
-        <v>37.55382982302613</v>
+        <v>37.55382982302612</v>
       </c>
     </row>
     <row r="5232" spans="1:2">
@@ -42255,7 +42255,7 @@
         <v>5239</v>
       </c>
       <c r="B5239">
-        <v>49.49442315120532</v>
+        <v>49.49442315120531</v>
       </c>
     </row>
     <row r="5240" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>154.3848409591395</v>
+        <v>154.3848409591394</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>47.26298026283784</v>
+        <v>47.26298026283783</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>48.97773891004537</v>
+        <v>48.97773891004536</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>37.24053688269715</v>
+        <v>37.24053688269714</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>72.0503425707371</v>
+        <v>72.05034257073709</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>49.49237165393469</v>
+        <v>49.49237165393468</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>105.4226348141432</v>
+        <v>105.4226348141431</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>77.70133833820516</v>
+        <v>77.70133833820515</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>91.92495505755625</v>
+        <v>91.92495505755622</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>162.6664423696318</v>
+        <v>162.6664423696317</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -43023,7 +43023,7 @@
         <v>5335</v>
       </c>
       <c r="B5335">
-        <v>88.67890023334317</v>
+        <v>88.67890023334316</v>
       </c>
     </row>
     <row r="5336" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>130.7949669152105</v>
+        <v>130.7949669152104</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43167,7 +43167,7 @@
         <v>5353</v>
       </c>
       <c r="B5353">
-        <v>97.43556979750552</v>
+        <v>97.43556979750549</v>
       </c>
     </row>
     <row r="5354" spans="1:2">
@@ -43199,7 +43199,7 @@
         <v>5357</v>
       </c>
       <c r="B5357">
-        <v>85.2168520536367</v>
+        <v>85.21685205363669</v>
       </c>
     </row>
     <row r="5358" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>168.8314847389119</v>
+        <v>168.8314847389118</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43543,7 +43543,7 @@
         <v>5400</v>
       </c>
       <c r="B5400">
-        <v>130.5772151334851</v>
+        <v>130.577215133485</v>
       </c>
     </row>
     <row r="5401" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>265.5745276720606</v>
+        <v>265.5745276720605</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43751,7 +43751,7 @@
         <v>5426</v>
       </c>
       <c r="B5426">
-        <v>75.54609391988963</v>
+        <v>75.54609391988961</v>
       </c>
     </row>
     <row r="5427" spans="1:2">
@@ -43759,7 +43759,7 @@
         <v>5427</v>
       </c>
       <c r="B5427">
-        <v>72.63853614533042</v>
+        <v>72.63853614533041</v>
       </c>
     </row>
     <row r="5428" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>81.03883132648056</v>
+        <v>81.03883132648055</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43879,7 +43879,7 @@
         <v>5442</v>
       </c>
       <c r="B5442">
-        <v>89.52001411430123</v>
+        <v>89.52001411430122</v>
       </c>
     </row>
     <row r="5443" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>72.74374864820984</v>
+        <v>72.74374864820983</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -43943,7 +43943,7 @@
         <v>5450</v>
       </c>
       <c r="B5450">
-        <v>66.29999572116284</v>
+        <v>66.29999572116283</v>
       </c>
     </row>
     <row r="5451" spans="1:2">
@@ -44143,7 +44143,7 @@
         <v>5475</v>
       </c>
       <c r="B5475">
-        <v>89.10473245251811</v>
+        <v>89.10473245251809</v>
       </c>
     </row>
     <row r="5476" spans="1:2">
@@ -44271,7 +44271,7 @@
         <v>5491</v>
       </c>
       <c r="B5491">
-        <v>140.1213665785305</v>
+        <v>140.1213665785304</v>
       </c>
     </row>
     <row r="5492" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>82.04230656285701</v>
+        <v>82.04230656285699</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>64.5421556312721</v>
+        <v>64.54215563127208</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44543,7 +44543,7 @@
         <v>5525</v>
       </c>
       <c r="B5525">
-        <v>67.89752595290584</v>
+        <v>67.89752595290582</v>
       </c>
     </row>
     <row r="5526" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>97.29724026725737</v>
+        <v>97.29724026725734</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44679,7 +44679,7 @@
         <v>5542</v>
       </c>
       <c r="B5542">
-        <v>95.7313617076898</v>
+        <v>95.73136170768976</v>
       </c>
     </row>
     <row r="5543" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>246.0472043660552</v>
+        <v>246.0472043660551</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>202.2324979441067</v>
+        <v>202.2324979441066</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>82.05490861751944</v>
+        <v>82.05490861751943</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>147.7151302612846</v>
+        <v>147.7151302612845</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>93.93718080900504</v>
+        <v>93.937180809005</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>78.55241663447771</v>
+        <v>78.55241663447769</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45271,7 +45271,7 @@
         <v>5616</v>
       </c>
       <c r="B5616">
-        <v>56.53105878946422</v>
+        <v>56.53105878946421</v>
       </c>
     </row>
     <row r="5617" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>35.08001718568571</v>
+        <v>35.0800171856857</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>72.71063162084111</v>
+        <v>72.7106316208411</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45415,7 +45415,7 @@
         <v>5634</v>
       </c>
       <c r="B5634">
-        <v>82.48279233396501</v>
+        <v>82.48279233396499</v>
       </c>
     </row>
     <row r="5635" spans="1:2">
@@ -45471,7 +45471,7 @@
         <v>5641</v>
       </c>
       <c r="B5641">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="5642" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>52.41165227004035</v>
+        <v>52.41165227004034</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>174.1407596753008</v>
+        <v>174.1407596753007</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45647,7 +45647,7 @@
         <v>5663</v>
       </c>
       <c r="B5663">
-        <v>57.66758827739292</v>
+        <v>57.66758827739291</v>
       </c>
     </row>
     <row r="5664" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>52.21529467413725</v>
+        <v>52.21529467413724</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45935,7 +45935,7 @@
         <v>5699</v>
       </c>
       <c r="B5699">
-        <v>126.0252357609971</v>
+        <v>126.025235760997</v>
       </c>
     </row>
     <row r="5700" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>126.270243149318</v>
+        <v>126.2702431493179</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>120.083513523177</v>
+        <v>120.0835135231769</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46263,7 +46263,7 @@
         <v>5740</v>
       </c>
       <c r="B5740">
-        <v>88.57749765396635</v>
+        <v>88.57749765396633</v>
       </c>
     </row>
     <row r="5741" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>152.5546123226994</v>
+        <v>152.5546123226993</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>110.4060147555407</v>
+        <v>110.4060147555406</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>206.6156683983258</v>
+        <v>206.6156683983257</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>188.1161452249057</v>
+        <v>188.1161452249056</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46623,7 +46623,7 @@
         <v>5785</v>
       </c>
       <c r="B5785">
-        <v>46.26155652373202</v>
+        <v>46.26155652373201</v>
       </c>
     </row>
     <row r="5786" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>37.71677732052184</v>
+        <v>37.71677732052183</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>60.73750740737051</v>
+        <v>60.7375074073705</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46847,7 +46847,7 @@
         <v>5813</v>
       </c>
       <c r="B5813">
-        <v>54.9443721861517</v>
+        <v>54.94437218615169</v>
       </c>
     </row>
     <row r="5814" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>83.81274870741019</v>
+        <v>83.81274870741018</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46959,7 +46959,7 @@
         <v>5827</v>
       </c>
       <c r="B5827">
-        <v>134.3894832043919</v>
+        <v>134.3894832043918</v>
       </c>
     </row>
     <row r="5828" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>60.44707400805712</v>
+        <v>60.44707400805711</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>23.89378871102082</v>
+        <v>23.89378871102081</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>94.05968450316549</v>
+        <v>94.05968450316546</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>91.55539247780428</v>
+        <v>91.55539247780426</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48119,7 +48119,7 @@
         <v>5972</v>
       </c>
       <c r="B5972">
-        <v>72.2595952923413</v>
+        <v>72.25959529234129</v>
       </c>
     </row>
     <row r="5973" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>39.89751891920091</v>
+        <v>39.8975189192009</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>78.24908810946322</v>
+        <v>78.2490881094632</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>99.4735858003565</v>
+        <v>99.47358580035647</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>85.99847251374651</v>
+        <v>85.99847251374649</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>80.65139141337026</v>
+        <v>80.65139141337025</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>80.14672308479543</v>
+        <v>80.14672308479541</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>77.38745925579886</v>
+        <v>77.38745925579884</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>83.18880046610019</v>
+        <v>83.18880046610018</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>138.7072988169895</v>
+        <v>138.7072988169894</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48919,7 +48919,7 @@
         <v>6072</v>
       </c>
       <c r="B6072">
-        <v>78.89355132347951</v>
+        <v>78.8935513234795</v>
       </c>
     </row>
     <row r="6073" spans="1:2">
@@ -48943,7 +48943,7 @@
         <v>6075</v>
       </c>
       <c r="B6075">
-        <v>74.84008578775445</v>
+        <v>74.84008578775443</v>
       </c>
     </row>
     <row r="6076" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>75.43355464104367</v>
+        <v>75.43355464104366</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -49135,7 +49135,7 @@
         <v>6099</v>
       </c>
       <c r="B6099">
-        <v>61.0484557793902</v>
+        <v>61.04845577939019</v>
       </c>
     </row>
     <row r="6100" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>76.2620664673393</v>
+        <v>76.26206646733928</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49471,7 +49471,7 @@
         <v>6141</v>
       </c>
       <c r="B6141">
-        <v>66.9318568805167</v>
+        <v>66.93185688051669</v>
       </c>
     </row>
     <row r="6142" spans="1:2">
@@ -49503,7 +49503,7 @@
         <v>6145</v>
       </c>
       <c r="B6145">
-        <v>54.09563845818844</v>
+        <v>54.09563845818843</v>
       </c>
     </row>
     <row r="6146" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>86.59516514846101</v>
+        <v>86.59516514846099</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>179.2818118354981</v>
+        <v>179.281811835498</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49703,7 +49703,7 @@
         <v>6170</v>
       </c>
       <c r="B6170">
-        <v>70.80449758538772</v>
+        <v>70.80449758538771</v>
       </c>
     </row>
     <row r="6171" spans="1:2">
@@ -49711,7 +49711,7 @@
         <v>6171</v>
       </c>
       <c r="B6171">
-        <v>69.2526864356759</v>
+        <v>69.25268643567588</v>
       </c>
     </row>
     <row r="6172" spans="1:2">
@@ -49751,7 +49751,7 @@
         <v>6176</v>
       </c>
       <c r="B6176">
-        <v>62.01383178074067</v>
+        <v>62.01383178074066</v>
       </c>
     </row>
     <row r="6177" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>45.70647997650743</v>
+        <v>45.70647997650742</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>59.80993757000735</v>
+        <v>59.80993757000734</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>86.65348628515461</v>
+        <v>86.6534862851546</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>91.17791698000846</v>
+        <v>91.17791698000843</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>97.65420079234688</v>
+        <v>97.65420079234686</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50239,7 +50239,7 @@
         <v>6237</v>
       </c>
       <c r="B6237">
-        <v>85.81764768289246</v>
+        <v>85.81764768289244</v>
       </c>
     </row>
     <row r="6238" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>108.9072494638266</v>
+        <v>108.9072494638265</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50447,7 +50447,7 @@
         <v>6263</v>
       </c>
       <c r="B6263">
-        <v>44.40700299108303</v>
+        <v>44.40700299108302</v>
       </c>
     </row>
     <row r="6264" spans="1:2">
@@ -50471,7 +50471,7 @@
         <v>6266</v>
       </c>
       <c r="B6266">
-        <v>35.35521089098872</v>
+        <v>35.35521089098871</v>
       </c>
     </row>
     <row r="6267" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>27.16663022816753</v>
+        <v>27.16663022816752</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50519,7 +50519,7 @@
         <v>6272</v>
       </c>
       <c r="B6272">
-        <v>74.34596801657142</v>
+        <v>74.3459680165714</v>
       </c>
     </row>
     <row r="6273" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>119.2919286477527</v>
+        <v>119.2919286477526</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>94.84716638404851</v>
+        <v>94.84716638404848</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50703,7 +50703,7 @@
         <v>6295</v>
       </c>
       <c r="B6295">
-        <v>96.35267230965184</v>
+        <v>96.35267230965182</v>
       </c>
     </row>
     <row r="6296" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>248.3771191234129</v>
+        <v>248.3771191234128</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>56.64359806831018</v>
+        <v>56.64359806831017</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>35.29132140456054</v>
+        <v>35.29132140456053</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>29.36747650009877</v>
+        <v>29.36747650009876</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>30.82491877536164</v>
+        <v>30.82491877536163</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>52.36065790931328</v>
+        <v>52.36065790931327</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -50991,7 +50991,7 @@
         <v>6331</v>
       </c>
       <c r="B6331">
-        <v>45.58632085065628</v>
+        <v>45.58632085065627</v>
       </c>
     </row>
     <row r="6332" spans="1:2">
@@ -51095,7 +51095,7 @@
         <v>6344</v>
       </c>
       <c r="B6344">
-        <v>21.11471327981075</v>
+        <v>21.11471327981074</v>
       </c>
     </row>
     <row r="6345" spans="1:2">
@@ -51159,7 +51159,7 @@
         <v>6352</v>
       </c>
       <c r="B6352">
-        <v>56.07504025330717</v>
+        <v>56.07504025330716</v>
       </c>
     </row>
     <row r="6353" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>35.02638518561069</v>
+        <v>35.02638518561068</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>27.77278905743079</v>
+        <v>27.77278905743078</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>46.73574546428608</v>
+        <v>46.73574546428607</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>44.06557523104256</v>
+        <v>44.06557523104255</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>36.17024144950592</v>
+        <v>36.17024144950591</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>26.06817066816095</v>
+        <v>26.06817066816094</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51559,7 +51559,7 @@
         <v>6402</v>
       </c>
       <c r="B6402">
-        <v>32.76416983818376</v>
+        <v>32.76416983818375</v>
       </c>
     </row>
     <row r="6403" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>28.56408086181642</v>
+        <v>28.56408086181641</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>8.558641463338866</v>
+        <v>8.558641463338864</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>56.29953266892176</v>
+        <v>56.29953266892175</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>64.57585880071815</v>
+        <v>64.57585880071814</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>20.66695934694395</v>
+        <v>20.66695934694394</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>18.65452844576809</v>
+        <v>18.65452844576808</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>34.35408022292156</v>
+        <v>34.35408022292155</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>73.12063800392833</v>
+        <v>73.12063800392832</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51951,7 +51951,7 @@
         <v>6451</v>
       </c>
       <c r="B6451">
-        <v>43.43400714272736</v>
+        <v>43.43400714272735</v>
       </c>
     </row>
     <row r="6452" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>40.1091162091144</v>
+        <v>40.10911620911439</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>45.74956141919065</v>
+        <v>45.74956141919064</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52127,7 +52127,7 @@
         <v>6473</v>
       </c>
       <c r="B6473">
-        <v>95.78645906295812</v>
+        <v>95.7864590629581</v>
       </c>
     </row>
     <row r="6474" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>46.27708928878107</v>
+        <v>46.27708928878106</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>64.53746649465351</v>
+        <v>64.5374664946535</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>82.36878769992575</v>
+        <v>82.36878769992573</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52375,7 +52375,7 @@
         <v>6504</v>
       </c>
       <c r="B6504">
-        <v>81.92038901077389</v>
+        <v>81.92038901077387</v>
       </c>
     </row>
     <row r="6505" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>32.69529814409835</v>
+        <v>32.69529814409834</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>63.37426754220663</v>
+        <v>63.37426754220662</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>35.07239733868052</v>
+        <v>35.07239733868051</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>33.0724805708555</v>
+        <v>33.07248057085549</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>31.88085372765847</v>
+        <v>31.88085372765846</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>47.74449597935843</v>
+        <v>47.74449597935842</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52663,7 +52663,7 @@
         <v>6540</v>
       </c>
       <c r="B6540">
-        <v>53.7032163374209</v>
+        <v>53.70321633742089</v>
       </c>
     </row>
     <row r="6541" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>35.3651753063032</v>
+        <v>35.36517530630319</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>22.31636315253</v>
+        <v>22.31636315252999</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -52943,7 +52943,7 @@
         <v>6575</v>
       </c>
       <c r="B6575">
-        <v>17.72461404009564</v>
+        <v>17.72461404009563</v>
       </c>
     </row>
     <row r="6576" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>19.29957780186171</v>
+        <v>19.2995778018617</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>96.4136310856934</v>
+        <v>96.41363108569338</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53111,7 +53111,7 @@
         <v>6596</v>
       </c>
       <c r="B6596">
-        <v>70.20370195613197</v>
+        <v>70.20370195613195</v>
       </c>
     </row>
     <row r="6597" spans="1:2">
@@ -53343,7 +53343,7 @@
         <v>6625</v>
       </c>
       <c r="B6625">
-        <v>56.17966661410927</v>
+        <v>56.17966661410926</v>
       </c>
     </row>
     <row r="6626" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>41.19435826527736</v>
+        <v>41.19435826527735</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>166.8863722553165</v>
+        <v>166.8863722553164</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53703,7 +53703,7 @@
         <v>6670</v>
       </c>
       <c r="B6670">
-        <v>77.54835525602394</v>
+        <v>77.54835525602392</v>
       </c>
     </row>
     <row r="6671" spans="1:2">
@@ -53743,7 +53743,7 @@
         <v>6675</v>
       </c>
       <c r="B6675">
-        <v>70.50116906037323</v>
+        <v>70.50116906037321</v>
       </c>
     </row>
     <row r="6676" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>69.81626204302167</v>
+        <v>69.81626204302165</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53863,7 +53863,7 @@
         <v>6690</v>
       </c>
       <c r="B6690">
-        <v>25.46186530337835</v>
+        <v>25.46186530337834</v>
       </c>
     </row>
     <row r="6691" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>7.808174454638758</v>
+        <v>7.808174454638757</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>36.43019546079853</v>
+        <v>36.43019546079852</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>43.1714154920868</v>
+        <v>43.17141549208679</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>48.84497772953178</v>
+        <v>48.84497772953177</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54495,7 +54495,7 @@
         <v>6769</v>
       </c>
       <c r="B6769">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="6770" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>64.06327755409946</v>
+        <v>64.06327755409944</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>72.85306414563053</v>
+        <v>72.85306414563051</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54615,7 +54615,7 @@
         <v>6784</v>
       </c>
       <c r="B6784">
-        <v>88.12059990469331</v>
+        <v>88.12059990469329</v>
       </c>
     </row>
     <row r="6785" spans="1:2">
@@ -54639,7 +54639,7 @@
         <v>6787</v>
       </c>
       <c r="B6787">
-        <v>41.14834611220753</v>
+        <v>41.14834611220752</v>
       </c>
     </row>
     <row r="6788" spans="1:2">
@@ -54751,7 +54751,7 @@
         <v>6801</v>
       </c>
       <c r="B6801">
-        <v>67.09275288074178</v>
+        <v>67.09275288074177</v>
       </c>
     </row>
     <row r="6802" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>32.55257254827027</v>
+        <v>32.55257254827026</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54879,7 +54879,7 @@
         <v>6817</v>
       </c>
       <c r="B6817">
-        <v>24.4513856691779</v>
+        <v>24.45138566917789</v>
       </c>
     </row>
     <row r="6818" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>53.83333987858654</v>
+        <v>53.83333987858653</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>34.63425613588181</v>
+        <v>34.6342561358818</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55359,7 +55359,7 @@
         <v>6877</v>
       </c>
       <c r="B6877">
-        <v>84.49296658814318</v>
+        <v>84.49296658814316</v>
       </c>
     </row>
     <row r="6878" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>77.80801619627789</v>
+        <v>77.80801619627788</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>76.58737532025339</v>
+        <v>76.58737532025337</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>11.94496008665525</v>
+        <v>11.94496008665524</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>63.537508110741</v>
+        <v>63.53750811074099</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>50.11895753459265</v>
+        <v>50.11895753459264</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>84.37837581202659</v>
+        <v>84.37837581202658</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>24.72206608048552</v>
+        <v>24.72206608048551</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55991,7 +55991,7 @@
         <v>6956</v>
       </c>
       <c r="B6956">
-        <v>24.88384129382658</v>
+        <v>24.88384129382657</v>
       </c>
     </row>
     <row r="6957" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>11.36412259513233</v>
+        <v>11.36412259513232</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>6.592750243102428</v>
+        <v>6.592750243102427</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>43.13067861771287</v>
+        <v>43.13067861771286</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56183,7 +56183,7 @@
         <v>6980</v>
       </c>
       <c r="B6980">
-        <v>20.45439492260288</v>
+        <v>20.45439492260287</v>
       </c>
     </row>
     <row r="6981" spans="1:2">
@@ -56215,7 +56215,7 @@
         <v>6984</v>
       </c>
       <c r="B6984">
-        <v>10.57121890003406</v>
+        <v>10.57121890003405</v>
       </c>
     </row>
     <row r="6985" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>6.218967440393747</v>
+        <v>6.218967440393746</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>8.548852890647577</v>
+        <v>8.548852890647575</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>51.33930533957849</v>
+        <v>51.33930533957848</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>9.234873577946054</v>
+        <v>9.234873577946052</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>47.85117383743116</v>
+        <v>47.85117383743115</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>53.40780073045026</v>
+        <v>53.40780073045025</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>50.42433755687777</v>
+        <v>50.42433755687776</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>74.26976954651947</v>
+        <v>74.26976954651946</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>138.4707904887898</v>
+        <v>138.4707904887897</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>53.42597113484727</v>
+        <v>53.42597113484726</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>69.12021832620097</v>
+        <v>69.12021832620096</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57191,7 +57191,7 @@
         <v>7106</v>
       </c>
       <c r="B7106">
-        <v>60.57690447818409</v>
+        <v>60.57690447818408</v>
       </c>
     </row>
     <row r="7107" spans="1:2">
@@ -57223,7 +57223,7 @@
         <v>7110</v>
       </c>
       <c r="B7110">
-        <v>55.95312270122405</v>
+        <v>55.95312270122404</v>
       </c>
     </row>
     <row r="7111" spans="1:2">
@@ -57239,7 +57239,7 @@
         <v>7112</v>
       </c>
       <c r="B7112">
-        <v>69.33943546311966</v>
+        <v>69.33943546311964</v>
       </c>
     </row>
     <row r="7113" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>71.15354519243338</v>
+        <v>71.15354519243337</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57391,7 +57391,7 @@
         <v>7131</v>
       </c>
       <c r="B7131">
-        <v>84.22597887192269</v>
+        <v>84.22597887192268</v>
       </c>
     </row>
     <row r="7132" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>147.5680085998766</v>
+        <v>147.5680085998765</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>57.4023589874044</v>
+        <v>57.40235898740439</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57519,7 +57519,7 @@
         <v>7147</v>
       </c>
       <c r="B7147">
-        <v>54.06779670951561</v>
+        <v>54.0677967095156</v>
       </c>
     </row>
     <row r="7148" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>20.6472649731459</v>
+        <v>20.64726497314589</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57823,7 +57823,7 @@
         <v>7185</v>
       </c>
       <c r="B7185">
-        <v>8.308300182114344</v>
+        <v>8.308300182114342</v>
       </c>
     </row>
     <row r="7186" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>1.747274878947008</v>
+        <v>1.747274878947007</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>27.29827773873421</v>
+        <v>27.2982777387342</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>22.54208646650697</v>
+        <v>22.54208646650696</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>55.60114438379177</v>
+        <v>55.60114438379176</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>33.4470253582647</v>
+        <v>33.44702535826469</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>5.733348729331898</v>
+        <v>5.733348729331897</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>25.30943905617059</v>
+        <v>25.30943905617058</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>39.82366501745825</v>
+        <v>39.82366501745824</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>27.31386911799099</v>
+        <v>27.31386911799098</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58703,7 +58703,7 @@
         <v>7295</v>
       </c>
       <c r="B7295">
-        <v>15.04764455875518</v>
+        <v>15.04764455875517</v>
       </c>
     </row>
     <row r="7296" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>12.75081752166235</v>
+        <v>12.75081752166234</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>9.475045294129028</v>
+        <v>9.475045294129025</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>20.14379823582958</v>
+        <v>20.14379823582957</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>42.09115564358108</v>
+        <v>42.09115564358107</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>36.22914872827685</v>
+        <v>36.22914872827684</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>0.3452757827780908</v>
+        <v>0.3452757827780907</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>47.57099792447091</v>
+        <v>47.5709979244709</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59031,7 +59031,7 @@
         <v>7336</v>
       </c>
       <c r="B7336">
-        <v>60.46260677310617</v>
+        <v>60.46260677310616</v>
       </c>
     </row>
     <row r="7337" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>8.246432885852935</v>
+        <v>8.246432885852933</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>9.148945149410547</v>
+        <v>9.148945149410546</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59175,7 +59175,7 @@
         <v>7354</v>
       </c>
       <c r="B7354">
-        <v>16.9336739209564</v>
+        <v>16.93367392095639</v>
       </c>
     </row>
     <row r="7355" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>38.31053924484972</v>
+        <v>38.31053924484971</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>9.16863952320859</v>
+        <v>9.168639523208588</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>6.410811742301464</v>
+        <v>6.410811742301463</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>2.745852898267423</v>
+        <v>2.745852898267422</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.75452311187518</v>
+        <v>0.7545231118751798</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>15.44789167625498</v>
+        <v>15.44789167625497</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>12.23026474279207</v>
+        <v>12.23026474279206</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>18.2721879687305</v>
+        <v>18.27218796873049</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>8.666169227423714</v>
+        <v>8.666169227423712</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60415,7 +60415,7 @@
         <v>7509</v>
       </c>
       <c r="B7509">
-        <v>46.46553396664032</v>
+        <v>46.46553396664031</v>
       </c>
     </row>
     <row r="7510" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>50.38125611419455</v>
+        <v>50.38125611419454</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>59.71615483763572</v>
+        <v>59.71615483763571</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>13.13963486865436</v>
+        <v>13.13963486865435</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>8.861647610210831</v>
+        <v>8.861647610210829</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>25.44636184543317</v>
+        <v>25.44636184543316</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>22.72464041648912</v>
+        <v>22.72464041648911</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>20.76499160937617</v>
+        <v>20.76499160937616</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>6.796288079452732</v>
+        <v>6.796288079452731</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>25.67006296924337</v>
+        <v>25.67006296924336</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>17.994913459053</v>
+        <v>17.99491345905299</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>6.436103772937939</v>
+        <v>6.436103772937938</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>0.5166871718703384</v>
+        <v>0.5166871718703383</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>0.5956727474999576</v>
+        <v>0.5956727474999575</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>9.398641674350014</v>
+        <v>9.398641674350012</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62519,7 +62519,7 @@
         <v>7772</v>
       </c>
       <c r="B7772">
-        <v>4.220750484592963</v>
+        <v>4.220750484592962</v>
       </c>
     </row>
     <row r="7773" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>9.27493638893106</v>
+        <v>9.274936388931058</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>7.426830419132616</v>
+        <v>7.426830419132615</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>10.41685838397113</v>
+        <v>10.41685838397112</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>6.108098666468161</v>
+        <v>6.10809866646816</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>7.589572766901261</v>
+        <v>7.58957276690126</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>5.978766417106909</v>
+        <v>5.978766417106908</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63663,7 +63663,7 @@
         <v>7915</v>
       </c>
       <c r="B7915">
-        <v>16.11562473074099</v>
+        <v>16.11562473074098</v>
       </c>
     </row>
     <row r="7916" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>7.192842501865398</v>
+        <v>7.192842501865397</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>16.39348538249581</v>
+        <v>16.3934853824958</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>36.5805409036318</v>
+        <v>36.58054090363179</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>30.62973346361318</v>
+        <v>30.62973346361317</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>35.55655069454906</v>
+        <v>35.55655069454905</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>58.07759466048014</v>
+        <v>58.07759466048013</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>65.30912253944884</v>
+        <v>65.30912253944882</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>54.16978543096976</v>
+        <v>54.16978543096975</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65391,7 +65391,7 @@
         <v>8131</v>
       </c>
       <c r="B8131">
-        <v>45.86942747400314</v>
+        <v>45.86942747400313</v>
       </c>
     </row>
     <row r="8132" spans="1:2">
@@ -65399,7 +65399,7 @@
         <v>8132</v>
       </c>
       <c r="B8132">
-        <v>40.04786436203418</v>
+        <v>40.04786436203417</v>
       </c>
     </row>
     <row r="8133" spans="1:2">
@@ -65655,7 +65655,7 @@
         <v>8164</v>
       </c>
       <c r="B8164">
-        <v>45.58133864299904</v>
+        <v>45.58133864299903</v>
       </c>
     </row>
     <row r="8165" spans="1:2">
@@ -65783,7 +65783,7 @@
         <v>8180</v>
       </c>
       <c r="B8180">
-        <v>60.51096349448529</v>
+        <v>60.51096349448528</v>
       </c>
     </row>
     <row r="8181" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>40.32833334603309</v>
+        <v>40.32833334603308</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>11.08283301222517</v>
+        <v>11.08283301222516</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>8.311992877201478</v>
+        <v>8.311992877201476</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>5.733055658293237</v>
+        <v>5.733055658293236</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>0.2888897941527639</v>
+        <v>0.2888897941527638</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>5.258485725388921</v>
+        <v>5.25848572538892</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>9.385306942090924</v>
+        <v>9.385306942090921</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>6.813901648876279</v>
+        <v>6.813901648876278</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>1.698261678441285</v>
+        <v>1.698261678441284</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>16.77166425078441</v>
+        <v>16.7716642507844</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>19.85758505947291</v>
+        <v>19.8575850594729</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66543,7 +66543,7 @@
         <v>8275</v>
       </c>
       <c r="B8275">
-        <v>6.999767301595304</v>
+        <v>6.999767301595303</v>
       </c>
     </row>
     <row r="8276" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>5.116697956884562</v>
+        <v>5.116697956884561</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>17.10169154742095</v>
+        <v>17.10169154742094</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>0.8155111950206059</v>
+        <v>0.8155111950206058</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>16.65748377412195</v>
+        <v>16.65748377412194</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>9.68737526163917</v>
+        <v>9.687375261639168</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>16.31341837473353</v>
+        <v>16.31341837473352</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>7.290669614570555</v>
+        <v>7.290669614570554</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>7.671515429310973</v>
+        <v>7.671515429310972</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>0.4630229339810595</v>
+        <v>0.4630229339810594</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>6.570007930502307</v>
+        <v>6.570007930502306</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>6.736355052046487</v>
+        <v>6.736355052046486</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>7.990669790413178</v>
+        <v>7.990669790413177</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>5.902450718639495</v>
+        <v>5.902450718639494</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>6.692101325208624</v>
+        <v>6.692101325208623</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
